--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_9.xlsx
@@ -482,679 +482,679 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6537880442290045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.1375897349242085</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3903151018633242</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2714683094443651</v>
       </c>
       <c r="F2" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3831546008586884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.8074843287467957</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.6945492625236511</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.7543383836746216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_22</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6941705123985948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1181868825580192</v>
+        <v>-0.02091016869696705</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3161783679095901</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1572040908476415</v>
       </c>
       <c r="F3" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3384630978107452</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9558894634246826</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7790053486824036</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8726500868797302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_21</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7011933591174384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1181868825580192</v>
+        <v>-0.001736887307642654</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3406229380933974</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1790400771887628</v>
       </c>
       <c r="F4" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3306908905506134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.937937319278717</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7511582374572754</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.85004061460495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_20</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7017143096961749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.001035072334201415</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3417627083590608</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1809554786179005</v>
       </c>
       <c r="F5" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3301143646240234</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9353419542312622</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7498598694801331</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8480573892593384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_19</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7018356105170959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.001625803203009313</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3422707992210969</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1815038759198695</v>
       </c>
       <c r="F6" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3299801051616669</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9347888231277466</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7492810487747192</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8474896550178528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_18</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7025479267490835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.003976749243198907</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.346129614757821</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1846250828477791</v>
       </c>
       <c r="F7" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3291917741298676</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9325876235961914</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7448850870132446</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8442578315734863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_17</t>
+          <t>model_4_9_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7029608942528263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.005148638404242067</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3467330658342971</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1854999189934473</v>
       </c>
       <c r="F8" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3287347257137299</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9314903616905212</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7441976070404053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8433520197868347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_16</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7031042662732938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.005055969350464151</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3478667245497213</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1860424475932977</v>
       </c>
       <c r="F9" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3285760879516602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9315770268440247</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7429061532020569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8427902460098267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_15</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.703218790925463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.005577216727463252</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3482115866472466</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.186468782055671</v>
       </c>
       <c r="F10" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3284493386745453</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9310891032218933</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7425133585929871</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8423487544059753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_14</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7037094656473879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.001993515676937063</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3536052347795519</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1875461748763968</v>
       </c>
       <c r="F11" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3279063105583191</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9344445466995239</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7363689541816711</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8412331938743591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_13</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7037696914311102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.007634167918633361</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.350205128115584</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1884860337821266</v>
       </c>
       <c r="F12" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3278396427631378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9291632175445557</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7402423024177551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8402600288391113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_23</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7040964520808315</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.002780897976091157</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3553590854198364</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.1888314766277891</v>
       </c>
       <c r="F13" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3274779915809631</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9337073564529419</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7343709468841553</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8399024605751038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_12</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7079217173943384</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.04283072467629934</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3701905204338665</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2156839458606655</v>
       </c>
       <c r="F14" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3232446014881134</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.8962082266807556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7174750566482544</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8120988607406616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_10</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7082241532724276</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.01301140732259209</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3734113296412671</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.203076311783404</v>
       </c>
       <c r="F15" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3229098916053772</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9241282939910889</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7138059139251709</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8251529335975647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_9</t>
+          <t>model_4_9_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7084620520351033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.01446321303992393</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3736249686917136</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2038808430014595</v>
       </c>
       <c r="F16" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3226466178894043</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9227690100669861</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.713562548160553</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8243198990821838</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7085486502809706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.01481258012828135</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3738386299255847</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2041592955516461</v>
       </c>
       <c r="F17" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3225507736206055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9224418997764587</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7133191227912903</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.82403165102005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7085864984597932</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.01389960615369179</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3751350917322196</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2043932456969954</v>
       </c>
       <c r="F18" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3225088715553284</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9232966899871826</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7118422389030457</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8237894177436829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7091744684941416</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.0158373253038222</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3770779743398723</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2063287748976117</v>
       </c>
       <c r="F19" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3218581676483154</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9214825034141541</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7096289396286011</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8217853307723999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7102464873401613</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.01360944050259094</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3860538613862426</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2099088838419015</v>
       </c>
       <c r="F20" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3206717669963837</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.9235684275627136</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.6994036436080933</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8180783987045288</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7106739324222138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.01931855083638045</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.3839252811110286</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.2115391718438636</v>
       </c>
       <c r="F21" t="n">
-        <v>1.222268342971802</v>
+        <v>0.3201987147331238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.918222963809967</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.7018284797668457</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.8163903951644897</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7356181677846145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.09942369738287415</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.5244103082366136</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.3226248083957136</v>
       </c>
       <c r="F22" t="n">
-        <v>1.222268342971802</v>
+        <v>0.2925927937030792</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.8432195782661438</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.5417888164520264</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.7013697624206543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7392937934626077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.1320758288826441</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.5703807955532512</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.3620580541046585</v>
       </c>
       <c r="F23" t="n">
-        <v>1.222268342971802</v>
+        <v>0.2885249555110931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.8126471042633057</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.4894195199012756</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.6605396270751953</v>
       </c>
     </row>
     <row r="24">
@@ -1164,90 +1164,90 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7406404907592148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.3229233577322442</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.5696542161268783</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.453047343918626</v>
       </c>
       <c r="F24" t="n">
-        <v>1.222268342971802</v>
+        <v>0.2870345711708069</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.6339544057846069</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.4902472496032715</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.5663273334503174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_11</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7565465171174385</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.2658359616980878</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.5988289389296955</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.4408231601198515</v>
       </c>
       <c r="F25" t="n">
-        <v>1.222268342971802</v>
+        <v>0.2694312632083893</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.6874059438705444</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.4570115804672241</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.5789844989776611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_24</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.7580274615473258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1181868825580192</v>
+        <v>0.2673530390886316</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7410479895375439</v>
+        <v>0.5927593216214824</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03057838294171411</v>
+        <v>0.4384059490657065</v>
       </c>
       <c r="F26" t="n">
-        <v>1.222268342971802</v>
+        <v>0.267792284488678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1056608110666275</v>
+        <v>0.6859855055809021</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1232417300343513</v>
+        <v>0.4639260470867157</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1139341965317726</v>
+        <v>0.5814872980117798</v>
       </c>
     </row>
   </sheetData>
